--- a/academias/Programación - Estadisticos 20202.xlsx
+++ b/academias/Programación - Estadisticos 20202.xlsx
@@ -525,25 +525,25 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>80.95</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="H2">
-        <v>19.05</v>
+        <v>4.76</v>
       </c>
       <c r="I2">
-        <v>9.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>19.05</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -560,25 +560,25 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>80.95</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="H3">
-        <v>19.05</v>
+        <v>4.76</v>
       </c>
       <c r="I3">
-        <v>9.1</v>
+        <v>8.6</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>19.05</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -595,25 +595,25 @@
         <v>39</v>
       </c>
       <c r="E4">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>79.48999999999999</v>
+        <v>89.73999999999999</v>
       </c>
       <c r="H4">
-        <v>20.51</v>
+        <v>10.26</v>
       </c>
       <c r="I4">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K4">
-        <v>20.51</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -630,25 +630,25 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>80.95</v>
+        <v>90.48</v>
       </c>
       <c r="H5">
-        <v>19.05</v>
+        <v>9.52</v>
       </c>
       <c r="I5">
-        <v>9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>19.05</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1137,25 +1137,25 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>80.95</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="H2">
-        <v>19.05</v>
+        <v>4.76</v>
       </c>
       <c r="I2">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>19.05</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1172,25 +1172,25 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>80.95</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="H3">
-        <v>19.05</v>
+        <v>4.76</v>
       </c>
       <c r="I3">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>19.05</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1207,25 +1207,25 @@
         <v>39</v>
       </c>
       <c r="E4">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>79.48999999999999</v>
+        <v>89.73999999999999</v>
       </c>
       <c r="H4">
-        <v>20.51</v>
+        <v>10.26</v>
       </c>
       <c r="I4">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="J4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K4">
-        <v>20.51</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1242,25 +1242,25 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>80.95</v>
+        <v>90.48</v>
       </c>
       <c r="H5">
-        <v>19.05</v>
+        <v>9.52</v>
       </c>
       <c r="I5">
-        <v>9.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>19.05</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1749,25 +1749,25 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>80.95</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="H2">
-        <v>19.05</v>
+        <v>4.76</v>
       </c>
       <c r="I2">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>19.05</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1784,25 +1784,25 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>80.95</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="H3">
-        <v>19.05</v>
+        <v>4.76</v>
       </c>
       <c r="I3">
-        <v>8.699999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>19.05</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1819,25 +1819,25 @@
         <v>39</v>
       </c>
       <c r="E4">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>79.48999999999999</v>
+        <v>89.73999999999999</v>
       </c>
       <c r="H4">
-        <v>20.51</v>
+        <v>10.26</v>
       </c>
       <c r="I4">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="J4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K4">
-        <v>20.51</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1854,25 +1854,25 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>80.95</v>
+        <v>90.48</v>
       </c>
       <c r="H5">
-        <v>19.05</v>
+        <v>9.52</v>
       </c>
       <c r="I5">
-        <v>9.199999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>19.05</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="6" spans="1:11">

--- a/academias/Programación - Estadisticos 20202.xlsx
+++ b/academias/Programación - Estadisticos 20202.xlsx
@@ -595,25 +595,25 @@
         <v>39</v>
       </c>
       <c r="E4">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>89.73999999999999</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>10.26</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>10.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -630,25 +630,25 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>90.48</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="H5">
-        <v>9.52</v>
+        <v>4.76</v>
       </c>
       <c r="I5">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>9.52</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1207,25 +1207,25 @@
         <v>39</v>
       </c>
       <c r="E4">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>89.73999999999999</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>10.26</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>10.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1242,25 +1242,25 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>90.48</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="H5">
-        <v>9.52</v>
+        <v>4.76</v>
       </c>
       <c r="I5">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>9.52</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1432,10 +1432,10 @@
         <v>6.5</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>3.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1819,25 +1819,25 @@
         <v>39</v>
       </c>
       <c r="E4">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>89.73999999999999</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>10.26</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>10.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1854,25 +1854,25 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>90.48</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="H5">
-        <v>9.52</v>
+        <v>4.76</v>
       </c>
       <c r="I5">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>9.52</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1994,16 +1994,16 @@
         <v>28</v>
       </c>
       <c r="E9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>92.86</v>
+        <v>96.43000000000001</v>
       </c>
       <c r="H9">
-        <v>7.14</v>
+        <v>3.57</v>
       </c>
       <c r="I9">
         <v>6.9</v>
@@ -2029,19 +2029,19 @@
         <v>28</v>
       </c>
       <c r="E10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>92.86</v>
+        <v>96.43000000000001</v>
       </c>
       <c r="H10">
-        <v>7.14</v>
+        <v>3.57</v>
       </c>
       <c r="I10">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="J10">
         <v>0</v>

--- a/academias/Programación - Estadisticos 20202.xlsx
+++ b/academias/Programación - Estadisticos 20202.xlsx
@@ -525,25 +525,25 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>95.23999999999999</v>
+        <v>100</v>
       </c>
       <c r="H2">
-        <v>4.76</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>8.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>4.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -560,25 +560,25 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>95.23999999999999</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>4.76</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>4.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -630,25 +630,25 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>95.23999999999999</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>4.76</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>4.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1137,25 +1137,25 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>95.23999999999999</v>
+        <v>100</v>
       </c>
       <c r="H2">
-        <v>4.76</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>4.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1172,25 +1172,25 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>95.23999999999999</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>4.76</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>4.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1242,25 +1242,25 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>95.23999999999999</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>4.76</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>4.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1749,25 +1749,25 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>95.23999999999999</v>
+        <v>100</v>
       </c>
       <c r="H2">
-        <v>4.76</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>4.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1784,25 +1784,25 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>95.23999999999999</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>4.76</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>4.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1854,25 +1854,25 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>95.23999999999999</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>4.76</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>4.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1924,19 +1924,19 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="J7">
         <v>0</v>
